--- a/500all/speech_level/speeches_CHRG-114hhrg97977.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97977.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order. Without objection, the chair is authorized to declare a recess at any time.    Today, the civilized world faces an unprecedented level of violence fueled by Islamic extremism. Recent reports indicate that over 30,000 people from over 100 different countries have traveled to the conflict zone in Syria and Iraq to wage jihad since 2011. This group includes over 4,500 westerners and over 250 Americans who have attempted or actually joined Islamic supremacist groups. Both Al Qaeda's global network and ISIS, among several other terrorist networks around the world, promote an ideology grounded in Islamic extremism and conquest.    As the Congressional Research Service has found, these terrorists use Islamist and ideological and/or religious justification for the belief in the establishment of a global caliphate, a jurisdiction governed by a Muslim civil and religious leader known as a caliph via violent means. As the ideology of militant Islam spreads, the threat to the U.S. and our allies, such as Israel, persists. Terrorist networks like Al Qaeda affiliates and ISIS, as well as extremists, clerics, and others, seek to spread this ideology in order to recruit, engage sympathizers, and criticize the West. Indeed, this propaganda is playing a role in promoting terrorist attacks in the U.S. where many homegrown cases of jihadi terrorism involve the use of social media.    Several sources indicate that there are 90,000 pro-ISIS tweets on a daily basis. While others suggest that there may be as many as 200,000 such tweets. Accounts belonging to other foreign terrorist organizations, such as Jabhat al-Nusra, Al Qaeda's branch in Syria, have a total of over 200,000 followers and are thriving. Official Twitter accounts belonging to Jabhat al-Nusra operate much like those belonging to ISIS, tweeting similar extremist content. ISIS' use of platforms like Twitter is highly effective. YouTube videos depicting violent acts against Westerners are used to incite others to take up arms and wage jihad.    While foreign fighters travel overseas for training and to make other terrorist connections, it's becoming apparent that Islamic recruits in the United States and other parts of the world who are unable to travel to these battlegrounds do not necessarily need to do so in order to receive training and inspiration. They can engage real time with jihadists on Twitter, watch ISIS's murderous propaganda on YouTube, view jihadi selfies on Instagram, or read religious justifications for the killing of civilians on Just Paste It. The question and answer Web site, ask.fm, has also become a popular platform for jihadists.    Unfortunately, ISIS's use of social media is believed to be resonating with vulnerable populations, particularly Muslim converts and susceptible alienated youth. However, radicalization of Americans cannot be narrowed to any single social or demographic profile. Instead, the Americans who are being radicalized to support and fight for Islamic extremists come from all walks of life. Those Americans who travel overseas to support terrorist groups can also incite others back home and abroad by their actions to conduct attacks and can themselves return back to the U.S. with training to complete terrorist attacks.    The bottom line is that these foreign fighters have been trained in combat, have strong ties to terrorist groups, and recruit others to join the fight. The U.S. Government has the ability under the law to revoke passports on several grounds, including reasons of national security. The administration has not indicated they plan to utilize immigration controls as other countries have in order to stop foreign fighters. Nor is the danger posed to the United States by foreign fighters limited to those terrorists and adherents to terrorists groups who are U.S. citizens. In order to enter the United States, citizens of most countries must obtain visas issued at overseas embassies and consulates by the State Department.    In 2014, the State Department issued almost 10 million visas to foreigners seeking temporary entry into America and nearly 500,000 immigrant visas for permanent residence. This process plays a crucial role in detecting individuals with terrorist ties and stopping them from entering the United States. Despite these safeguards, many of the subjects would have been convinced on terrorist charges in the United States since 9/11 are aliens who travel to America on visas, including student visas, tourist visas, and green cards. This danger is compounded by the large number of foreign fighters from visa-waiver countries who do not even need a visa to enter our country.    Federal and State governments as well as communities have begun to take action to mitigate the threat of terrorist propaganda on social media. However, they have experienced multiple challenges in combatting this threat. The unprecedented speed with which people are being radicalized by violent Islamic supremacists is difficult to keep up with and is straining the ability of government to monitor and intercept suspects. Jihadists using increasingly secure Web sites and applications, and communicating in code with Americans and westerners in the United States present even further challenges for law enforcement in tracking, identifying, and apprehending those who seek to engage in terrorist attacks.    In order to combat this trend, we must ensure that law enforcement has the necessary tools to do its job. Efforts to counter and deter unconventional information warfare must be joined with other government agencies' efforts to deal with the problem of terror on social media.    I thank our witnesses for their testimony today and look forward to examining issues related to the use of social media by terrorists, the extent that people are being radicalized, and what can be done to combat this growing problem.    I now recognize the ranking member of the Subcommittee on National Security, Mr. Lynch, for his opening statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to thank you for holding this hearing to examine the use of social media by the Islamic State and would like to thank today's witnesses for helping the committee with its work.    As noted by Jessica Stern and J.M. Berger, in their recent book, ISIS, the State of Terror, the Islamic State, also known as ISIL, has been prolific in its ability to exploit a variety of social media platforms. According to the authors, jihadists have been making slick propaganda for decades. But for a long time, these productions catered to an exclusive audience of potential recruits, never making the evening news or creeping into the collective consciousness of the West. However, in stark contrast, ISIL and its online supporters, continue to use Twitter, Facebook, WhatsAp, and other social networking services to broadcast their terrorist messages to a global audience in real time and significantly extend their recruitment, mobilization, and financing efforts beyond the battlefields in Iraq, Syria, and Afghanistan.    Last week, the Combatting Terrorism Center at West Point, again a J.M. Berger report, issued the existence or noticed the existence of over 40,000 accounts actively supporting the Islamic State on Twitter, with an estimated 2,000 accounts tweeting in English. A majority of these users form the core of the ISIL's aggressive online recruitment strategy. This strategy is designed to introduce recruitment targets to the Islamic State ideology, to groom and lavish attention on potential recruits through subsequent communication in private online channels, and directly call them to jihad. Ranging from lone-wolf style attacks at home, to migration to the Islamic State. The Islamic State even has a name for its most enthusiastic online users, mujtahidun, or the industrious ones. Jessica Stern and J.M. Berger note that these online supporters are far more active than their counterparts in Jabhat al-Nusra in Syria or Al Shabaab in Somalia in using social media tactics to expand their reach.    The impact of ISIL's extensive social media presence has already been witnessed in the unprecedented flood of foreign fighters to Iraq and Syria. A few months ago, I had the opportunity to travel with several House and Senate Members in a congressional delegation to the Syrian-Turkish border, an area north of Aleppo. We were briefed on the lack of meaningful progress in our train and equip program of so-called moderate rebels. We also met with representatives of about a half dozen rebel groups. And the only common characteristic between these groups was, one, they all saw Bashar al-Assad and his regime as the primary enemy. And, second, the all use WhatsAp as their platform for communication.    As reported in September of 2015 by the Bipartisan Congressional Task Force on Combatting Terrorism and Foreign Travel, nearly 30,000 foreign fighters have traveled to Iraq and Syria in 2011 to join the Islamic State, including an estimated 250 individuals from the United States who have sought to fight on the side of the extremists in ISIL conflict zones. There is also more direct evidence of the effect of Islamic State's online strategy here at home. According to the West Point report, at least 60 individuals have been arrested in the United States in 2015 for criminal acts in support of the Islamic State. Social media has played a role in the recruitment or radicalization in almost every single case.    As ranking member for the Financial Services Committee's Task Force to Investigate Terrorism Financing, I am well aware that ISIL and other terrorist groups are also using social media platforms and applications to coordinate funding for terrorist activity. Last year, David Cohen, who was then the undersecretary for Terrorism and Financial Intelligence at Treasury, remarked that constraining the flow of funds to terrorist groups is, ``particularly challenging in an area when social media allows anyone with an Internet connection to set himself up as an international terrorist financier.'' In particular, we have seen that private funding networks are relying on social media to solicit so-called charitable donations and inconspicuously connect donors with recipients on the battlefield. In response to the exploitation of social media by ISIL and other terrorist groups, Twitter and other service providers have slowly, and I must say grudgingly in some cases, begun to take some action to suspend terrorism-linked users accounts. This is often called a whack-a-mole approach to countering terrorism messaging, as suspended users can simply create new accounts. Jessica Stern and other analysts have noted that to a certain extent this strategy can prove effective in disrupting for a while and eventually downgrading terrorist social networks.    In addition, in 2011, the U.S. has established the Center for Strategic Counterterrorism Communications at the State Department, which for the past couple years has focused on countering ISIL's propaganda. However, as noted by one of today's witnesses, Ambassador Fernandez, the Center's budget over 3 years totaled the cost of a single Reaper drone, $15 million, and has remained the same since 2012. The team of operators and editors working in Arabic and English has not exceeded 15 people at any one time. The Center has also been operating amidst congressional budget constraints and hiring freezes that result at Federal agencies when Congress continues to enact short-term funding resolutions instead of traditional appropriations bills. We may have some progress in that regard as pending.    Mr. Chairman, it's clear that we must do more to counter the social media threat posed by the Islamic State and other terrorist groups. I look forward to discussing what additional steps we can take to strengthen our counterterrorism strategy in this regard, as well as support corresponding international, private sector, law enforcement, and community efforts.    Thank you, Mr. Chairman. And I yield back the balance of our time.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Wallace</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wallace. Thank you, Mr. Chairman. Chairman DeSantis, Ranking Member Lynch, and members of the subcommittee, thank you for the opportunity to appear before you. It's obviously my great pleasure and honor to appear with my distinguished colleagues on this panel.    The hijacking and weaponization of social media platforms by extremist groups to radicalize, recruit and plan violent attacks against innocent people around the world is a cancer that continues to grow largely unabated. Today, there are at least 43,000 active pro-ISIS Twitter accounts endlessly amplifying and repeating ISIS's messages of hate and terror. The more than 30,000 people who have joined ISIS from around the world is a testament to the power of social media.    On September 11 of this year, CEP, the Counter Extremism Project, released profiles of 66 Americans who have joined or allegedly attempted to join the Islamic State of Iraq and Syria, as well as other Americans accused of planning attacks on U.S. soil, providing financial assistance to extremist entities, or propagandizing on their behalf. These individuals have very different backgrounds and experiences. But the one characteristic that they seem to share is active participation on social media. In addition, we will soon release profiles on 54 of the most prolific social media propagandists. Through #CEPDigitalDistruption, we have identified and reported hundreds of extremists to Twitter. And in June, we expanded our campaign to include monitoring of Twitter accounts in French, Italian, German, and Turkish.    We respect and honor our American constitutional traditions of free speech. Our standard for reporting an account is incitement of violence or direct threats. To be clear, we are concerned about various social media platforms. Our focus is on Twitter because it's effectively the gateway drug where individuals, usually young people, are first exposed to propaganda and radical content. It's, of course, an enormously successful platform, Twitter, ubiquitous. In many ways, that success has spurred its misuse by online jihadis. We wrote three letters to Twitter. But the response we have gotten is dismissive to the point of dereliction. Twitter's attitude can be best summarized in a quote provided to Mother Jones magazine by a Twitter official. They said ``one man's terrorist is another man's freedom fighter.'' I want to repeat that. ``One man's terrorist is another man's freedom fighter.'' Of course, this statement is insipid and unserious, particularly in the context of Al Qaeda, ISIS, and many other extremist groups.    Sally Jones epitomizes Twitter's failure to act effectively. Jones, known on Twitter as Um Hassan Al-Bretani, is a British ISIS operative. In September, Jones issued a kill list of 100 U.S. servicemen. She was named an SDN global terrorist and placed on the United Nations' Security Council's sanctions list. And, yet, in October, Jones urged violence on Twitter against Navy Seal Veteran Robert O'Neil and Dillard Johnson, a former Army sergeant. If Twitter can beef up its policies as it relates to bullying and harassment of women, why does it show such dismissiveness when it comes to those promoting and glorifying terror.    We stand ready to work with Congress, the administration, and any company, including Twitter, in finding the right mix of remedies that effectively attacks this growing problem, while protecting our values and liberties. We believe there are clear and immediate changes that all social media companies could make. First, one of the problems we have encountered is that many social media companies place accounts that have been reported into a rolling queue. We believe that by giving CEP as well as others like the State Department trusted reporting status and opening a direct line of communication, we can more easily and swiftly identify and remove the most notorious extremists online.    Second, our campaign relies in part on our stakeholder audience also reporting accounts. But the reporting process on Twitter and other social media sites is long and cumbersome. Twitter recently started its streamlined reporting process for women to report harassment or stalking which is great. But reporting of violent extremists still falls into a catchall category.    Third, while every organization is different, we believe it's critical that America's most important tech companies show a united front when it comes to fighting violent extremism. This would include a clear public policy statement that extremist activities will not be tolerated.    Fourth, shine the bright spotlight of transparency in the most extremist, most egregious extremist accounts. This past year, one of the most influential social media jihadi, Shami Witness, was exposed and immediately shut down his accounts and stopped operating. We can collectively agree that the most egregious of cyber jihadis do not deserve anonymity or the right of free hate and incitement of terror speech through the use of Twitter or any other social media platform.    Fifth, companies should more proactively monitor content. It's one thing to take down, but they should more proactively monitor. While no social media company has been able to resolve the problem completely, companies like Google and Facebook are at least willing to have a conversation and take steps to address the issue.    I am convinced that there are strategies that we can bring to bear on those who attempt to hijack and weaponize social media platforms. The majority of social media companies are U.S. companies. But online misuse has global consequences. It's time that social media companies like Twitter take responsibility for the global implications of their platform and their lack of action.    I would respectfully ask that my full remarks be included in the record. Thank you, Mr. Chairman. And thank you, Mr. Ranking Member Lynch.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t xml:space="preserve">    Mr. DeSantis. Mr. Purdy, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Purdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Purdy. Chairman DeSantis, Ranking Member Lynch, distinguished members of the subcommittee, thank you for inviting me today to testify on this important issue.    As I was driving down here this morning, I thought back to almost 14 years ago when I sat with an American young man from California, who actually was radicalized in California, traveled overseas to Pakistan, made his way into Afghanistan where he trained in a terrorist training camp. Today, individuals here in the United States don't have to undertake that journey that this individual from California did 14 years ago. Today, anybody with a smart phone or a computer can become radicalized online.    Radicalization today takes so many different forms. There is no single pathway for someone becoming radicalized. And, yet, we see groups like Al Qaeda, al Nusra, ISIS all using social media and Internet today to act as enablers, providing a medium for these individuals seeking that path of self-radicalization. We see many works like Milestones, The Call to Global Jihad by Abu Musab al Suri, Constants on the Path of Jihad by Anwar al-Awlaki. These constant themes keep coming up in ISIS, al Nusra, and other terrorist social media, seeking to help radicalize these individuals before they go overseas and travel. These works constantly come up. And individuals here in the United States that have gone to social media sites, like some that you have mentioned in your opening statements, have helped to manipulate and motivate these individuals to undertake activities that run the spectrum from raising money, providing material support, undertaking to fight jihad here in the United States, traveling overseas to enter countries, Turkey, Greece, and others on there way to fight in Iraq and Syria, to plotting operations here in the United States.    Many of these individuals that we see have started that process of radicalization by going online, using the Internet. Individuals like Nidal Hasan, the Fort Hood shooter, exchanged dozens of emails with his spiritual mentor, Anwar al-Awlaki. American citizens, Awlaki and Adam Gadahn, both radicalized and recruited other individuals, sending people to various sites to help develop their radicalization. Virtual mentors today have communicated with potential recruits and others to deliver their messages to these individuals in blogs, Web sites, chatrooms, and forums.    The use of encrypted communication today, is a barrier in which law enforcement has to deal with to try to get to the bottom of this very challenging problem. Adam Gadahn, in a propaganda video years ago, stated, I advise every brother who wants to work for this religion not to undertake any action before taking advantage of the wide range of resources available today on the Internet. Whether a group like Al Qaeda, Al Nusra, or ISIS, they all constantly point those individuals, seeking to wage jihad, here in the United States or abroad to the Internet. The United States faces various challenges from homegrown violent extremists who have been radicalized to launch attacks here in the United States.    We have seen a growing list of Americans who have traveled to fight jihad and support terrorists groups like ISIS overseas. Former director of the FBI, speaking about Americans who had gone overseas to fight, stated, it raises the question of whether these young men will one day come home. And, if so, what type of things will they undertake here.    Today, any American uses social media to gain any sort of information and an understanding of all kinds of things that are placed on the Internet. But these individuals are using this particular platform so that they can gain access to jihadi fighters in theater and also to help recruit and radicalize potential American fighters. The number of American fighters that have taken selfies, created digital propaganda of themselves, fuse this particular effort that we see.    Since the Syrian conflict escalated, we have seen over 300 Americans attempt to or travel to or fight in Syria. Individuals like Nicole Mansfield, convert to Islam from Flynt, Michigan. Individuals from Virginia, Massachusetts, Florida have all gone and fought overseas. An American from Florida, on May 25, 2014, actually went and became their first suicide bomber in Syria. He grew up in a gated community. This particular social media platform is the fire that fuels the radicalization and the challenge that we face. I would say one additional thing that we need to understand.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t xml:space="preserve">    Mr. DeSantis. And, now, Mr. Gartenstein-Ross, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gartenstein-Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gartenstein-Ross. Thank you, Chairman DeSantis, Ranking Member Lynch, distinguished members. I appreciate the opportunity to testify before you today.    What I would like to focus on is the broader view of how social media is having an impact on the strategic information environment. Social media is revolutionary in so many ways. And I thought both the opening statements and also my colleagues have done a very good job of articulating those ways. But, ultimately, it's something which is tried and true in an armed conflict, that is, it's a tool of strategic communication.    I think in addition to understanding the direct impact of what ISIS is doing, we also need to understand how an organization like this, which has achieved a technical mastery of this strategic communication tool and also is branded by its over the top violence, we need to understand the impact that has on the overall information environment.    Chairman DeSantis, you spoke of the many extremist groups today that are operating in Syria and elsewhere and the many extremist groups that use this social media platform. ISIS is much more adept at it than others in terms of directly mobilizing people to their cause. But other groups also have their communication strategies.    ISIS, of course, was born out of the Al Qaeda organization and now challenges it for supremacy over the global jihadist movement. In so many ways, ISIS's rise has harmed Al Qaeda, including stealing away their fighters, stealing away their affiliates. But in other ways, it's actually benefited the Al Qaeda organization. In fact, today, Al Qaeda members are speaking openly of the ways in which ISIS's rise has helped them in terms of their communication.    In the latest issue of al-Risalah, which is an Al Qaeda-affiliated magazine published out of Syria, Usama Hamza Australi, who is a longtime confederate of the Al Qaeda organization, referred to ISIS's rise as a blessing in disguise. The reason he gave is that previously when people talked about extremism, they talked about people, Australi said, who wage jihad as being the extremists. Australi said now they know that it's not people who wage jihad that are the extremists, it's not those who avoid it, who are moderates, rather, he said, ISIS is the extremists and we, Al Qaeda, are the moderates.    Bin Laden recognized before his death that grave damage had been done to the Al Qaeda brand through the excesses of ISIS's predecessor, Al Qaeda in Iraq. He wanted to re-brand Al Qaeda. And he wanted to do this so badly, so deeply that he even thought about changing the organization's name. Well, two things have given Al Qaeda tremendous opportunities. One of which is the awful Sunni-Shia conflict which is racking the region, which has shifted strategic priorities and made some Sunni gulf states see Al Qaeda as a possible counterbalance against Iran.    The second thing is the rise of ISIS, which Al Qaeda is able to use as a foil. And they've done this successfully, much more successfully than we're now acknowledging and in ways that going to cause lasting problems for us. Right now, Al Qaeda is receiving state support. This is out in the open. The Jaysh al-Fatah Coalition, of which both Al Qaeda Syrian affiliates Jabhat al-Nusra and also the other jihadist group, Ahrar al-Sham are leading members. Receives open support from Qatar, Turkey, and Saudi Arabia. In Yemen, Al Qaeda is at the forefront of opposing the advance of Arabian-backed Houthis. Right now, Al Qaeda controls territory on the ground in Yemen, in Al Mukalla, which is the 5th largest city, and also in Aden. In fact, we're seeing the collapse of the anti-Al Qaeda sanctions regime with Mohammed Islambolly, a high-level member in the Khorasan Group in Syria, being delisted by the United Nations just 2 days ago.    Our own actions have an impact and prevent us from countering some of these negative developments. Let's not lose sight of the fact that our actions are communicated acts. When you look at our policies in Syria, which the Oversight Committee also is concerned about, one thing that has come up in the past few weeks after Russia started bombing is complaints from officials about how Russia was bombing U.S.-backed rebels.    There's an amazing article by Ken Dilanian in the Associated Press, published on October 10, where he talks about how U.S. officials said that our rebels were gaining ground prior to the Russian bombing. When he names where those rebels were gaining ground, in Idlib, in Hama, it's obvious that the people at the forefront were Jaysh al-Fatah, the coalition that's associated with Al Qaeda. I wish this were conspiracy theory. I wish that this was hyperbole.    But U.S. officials are talking about the fact that our rebels are helping Al Qaeda make advances on the ground. This is of grave concern because it's ultimately a communicated act. Our actions are communicated acts. And if we take actions that are contrary to our values and arguably contrary to U.S. law, that can stop us from preventing this tremendous shift where Al Qaeda is operating much more openly. Thank you.</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
     <t xml:space="preserve">    Mr. DeSantis. Ambassador Fernandez, welcome. You're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fernandez. Thank you, Mr. Chairman. And thank you, Ranking Member Lynch, other members, and ladies and gentlemen. It's a pleasure to be here with you today.    The ISIS appeal is truly revolutionary. This is a complete package, which includes a strong ideological component, deeply rooted in a specific Salafi jihadist reading of the period of formative Islam, a political project of building the caliphate state which is seen as a going concern and a 21st century appeal to substantive and consequential participation, aimed at youth searching for purpose and identity, in a seemingly aimless, empty, and hedonistic world.    Social media itself is not the heart of the issue. Social media is the accelerant. It's the thing that turbocharges a poisonous and powerful message. This appeal that ISIS has, has come closer than that of many other Islamic terrorist groups in mainstreaming its discussion. Mainstreaming its world view, and has, as other witnesses have said, ignited a terrorist media arms race with other groups seeking to match and even try to supercede what the Islamic State is doing.    The propaganda of ISIS is connected to the reality on the ground. The carnage in Syria and the victories in Iraq are eventually what led to the declaration of the caliphate. And we saw online support spike through the roof in the aftermath of these events.    What are some of the practical steps that can be taken? Number one, we need to realize that military victory is the best way to weaken ISIS propaganda appeal. There is a connection between the real world and the propaganda. The propaganda gets weakened when the reality on the ground changes.    Number two, as has been said here, there needs to be much better policing of social media. Not all social media companies are the same. Facebook has made real progress. But YouTube, Twitter, and others lag behind. It's overdue for Congress and for others to have a serious exchange of views, a serious conversation with social media companies on the terrorist presence on the Internet and how these companies violate terms of services, let alone the question of legality. Better policing of the Internet will decrease the number of ISIS propagandists and help those who are fighting it be increased. There is value in making it inconvenient for them.    Number two, people are radicalized in clusters as part of a personal relationship either directly or in person online. We know that recent converts, 40 percent of ISIS, people who want to join ISIS have been recent converts in the United States. And second generation immigrants are particularly at risk. We need to empower domestic and international civil society by both consistent funding and training to be on all the time, to be intervening and engaging with these lost and questing souls, enlist people who have a talent for engagement.    Third, Syria is important. ISIS seeks to present Syria as a mobilizing factor to mobilize people, to radicalize them, to get them to do something. They present a false image of the reality in Syria. And there is power in helping the Syrian people, victims of ISIS, survivors of ISIS violence, being able to communicate the reality on the ground that is often not known by a teenager in Mississippi or in California.    Finally, the last point I would mention is the issue of volume. Volume has value. We all know in our personal lives how you may see an obscure idea or strange idea be amplified by social media because a lot of people are pushing it. It's incredible to me that to this day, the United States, friendly countries in the West and in the Middle East are out numbered by the Islamic State. And you need volume to make the message more powerful. You need a network to fight a network.    There have been some small steps taken by the State Department, by friendly governments to begin to do this but we need to do a lot more. You need to encourage people and inspire them like ISIS does to do propaganda, or you need to rent them. But you need to find a way to form loose, open source communities of interest or swarms that can swarm back and push back against the ISIS message. It's not an impossible thing to do. It can be done. We just need to have a little more will and a little more support in doing so. Thank you very much.</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman. And, you know, many people today, both liberal and conservative, say that the original decision to go into Iraq in 2002 was the biggest foreign policy mistake in the history of this country. William Buckley, for instance, said similar words to that shortly before he passed away. George Will wrote a column saying that the neoconservatives, who were the strongest advocates of our war, were really the most--very misnamed people, he said actually they were the most radical people in this city. And the more we read about this, the worse it seems to get.    Just yesterday, for instance, I read that the New York Times had written that most of the leadership of ISIS and most of its soldiers were former members of the Iraqi Army and that we made a mistake when we followed our policy of de-Baathification and disbanding the Iraqi Army shortly after we started that second war in Iraq. Do you gentlemen think the New York Times was correct? Are most of the leadership of ISIS former Iraqi military people?    Anybody? Yes, sir.</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
     <t>412616</t>
   </si>
   <si>
-    <t>Ted Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chair. I agree with Representative Duncan that we're wasting taxpayer funds by bombing in Syria. I have seen no good results from that. In fact, you've seen more Syrians flee. And that sort of goes to my question to you, Ambassador Fernandez, which, I agree with you, that you say that social media is not the cause of radicalization, it's an accelerant. And really the problem is the message. Don't you think the U.S. bombing in Syria actually gives a lot of propaganda to ISIL and ISIS?</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman, and thank you, panel, for being here today. Very interesting and informative, and I appreciate the expertise that you bring to the table.    Mr. Purdy, let me begin with you. Can you describe for me a little bit about the program, the Mirror Image? I understand that it's something that allows law enforcement to walk in the shoes of terrorists or something to that effect. Could you describe that a little further, please?</t>
   </si>
   <si>
@@ -281,9 +254,6 @@
   </si>
   <si>
     <t>412654</t>
-  </si>
-  <si>
-    <t>Will Hurd</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Chairman. Ambassador Wallace, good to see you again. It's been a while since we served together in New York City. One of my first questions to you, sir, you mentioned the individual that had opened and closed a hundred accounts on Twitter by a different name. What are you proposing that Twitter do about it?</t>
@@ -772,11 +742,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -796,13 +764,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -824,11 +790,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -850,11 +814,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -876,11 +838,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -900,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -928,11 +886,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -954,11 +910,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -978,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1006,11 +958,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1032,11 +982,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1056,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1084,11 +1030,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1110,11 +1054,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1134,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1162,11 +1102,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1188,11 +1126,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1212,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1240,11 +1174,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1264,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1292,11 +1222,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1316,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1344,11 +1270,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1368,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1394,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1420,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1446,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1472,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1500,11 +1414,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1524,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1550,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1576,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1604,11 +1510,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1628,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1654,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1680,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1706,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1732,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1758,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1784,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>54</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1810,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1836,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1862,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1888,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1914,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1940,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1966,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1992,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2020,11 +1894,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2044,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2070,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2096,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2122,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2148,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2174,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2200,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2226,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2252,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2278,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2304,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2330,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2356,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2384,11 +2230,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2408,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2434,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2460,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2486,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2512,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2538,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2564,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2590,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2616,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2642,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2668,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2694,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2720,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2748,11 +2566,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2772,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2800,11 +2614,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2824,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2852,11 +2662,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2876,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2902,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2928,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2954,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2980,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3008,11 +2806,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3032,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3058,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3084,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3110,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3136,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3164,11 +2950,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97977.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97977.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order. Without objection, the chair is authorized to declare a recess at any time.    Today, the civilized world faces an unprecedented level of violence fueled by Islamic extremism. Recent reports indicate that over 30,000 people from over 100 different countries have traveled to the conflict zone in Syria and Iraq to wage jihad since 2011. This group includes over 4,500 westerners and over 250 Americans who have attempted or actually joined Islamic supremacist groups. Both Al Qaeda's global network and ISIS, among several other terrorist networks around the world, promote an ideology grounded in Islamic extremism and conquest.    As the Congressional Research Service has found, these terrorists use Islamist and ideological and/or religious justification for the belief in the establishment of a global caliphate, a jurisdiction governed by a Muslim civil and religious leader known as a caliph via violent means. As the ideology of militant Islam spreads, the threat to the U.S. and our allies, such as Israel, persists. Terrorist networks like Al Qaeda affiliates and ISIS, as well as extremists, clerics, and others, seek to spread this ideology in order to recruit, engage sympathizers, and criticize the West. Indeed, this propaganda is playing a role in promoting terrorist attacks in the U.S. where many homegrown cases of jihadi terrorism involve the use of social media.    Several sources indicate that there are 90,000 pro-ISIS tweets on a daily basis. While others suggest that there may be as many as 200,000 such tweets. Accounts belonging to other foreign terrorist organizations, such as Jabhat al-Nusra, Al Qaeda's branch in Syria, have a total of over 200,000 followers and are thriving. Official Twitter accounts belonging to Jabhat al-Nusra operate much like those belonging to ISIS, tweeting similar extremist content. ISIS' use of platforms like Twitter is highly effective. YouTube videos depicting violent acts against Westerners are used to incite others to take up arms and wage jihad.    While foreign fighters travel overseas for training and to make other terrorist connections, it's becoming apparent that Islamic recruits in the United States and other parts of the world who are unable to travel to these battlegrounds do not necessarily need to do so in order to receive training and inspiration. They can engage real time with jihadists on Twitter, watch ISIS's murderous propaganda on YouTube, view jihadi selfies on Instagram, or read religious justifications for the killing of civilians on Just Paste It. The question and answer Web site, ask.fm, has also become a popular platform for jihadists.    Unfortunately, ISIS's use of social media is believed to be resonating with vulnerable populations, particularly Muslim converts and susceptible alienated youth. However, radicalization of Americans cannot be narrowed to any single social or demographic profile. Instead, the Americans who are being radicalized to support and fight for Islamic extremists come from all walks of life. Those Americans who travel overseas to support terrorist groups can also incite others back home and abroad by their actions to conduct attacks and can themselves return back to the U.S. with training to complete terrorist attacks.    The bottom line is that these foreign fighters have been trained in combat, have strong ties to terrorist groups, and recruit others to join the fight. The U.S. Government has the ability under the law to revoke passports on several grounds, including reasons of national security. The administration has not indicated they plan to utilize immigration controls as other countries have in order to stop foreign fighters. Nor is the danger posed to the United States by foreign fighters limited to those terrorists and adherents to terrorists groups who are U.S. citizens. In order to enter the United States, citizens of most countries must obtain visas issued at overseas embassies and consulates by the State Department.    In 2014, the State Department issued almost 10 million visas to foreigners seeking temporary entry into America and nearly 500,000 immigrant visas for permanent residence. This process plays a crucial role in detecting individuals with terrorist ties and stopping them from entering the United States. Despite these safeguards, many of the subjects would have been convinced on terrorist charges in the United States since 9/11 are aliens who travel to America on visas, including student visas, tourist visas, and green cards. This danger is compounded by the large number of foreign fighters from visa-waiver countries who do not even need a visa to enter our country.    Federal and State governments as well as communities have begun to take action to mitigate the threat of terrorist propaganda on social media. However, they have experienced multiple challenges in combatting this threat. The unprecedented speed with which people are being radicalized by violent Islamic supremacists is difficult to keep up with and is straining the ability of government to monitor and intercept suspects. Jihadists using increasingly secure Web sites and applications, and communicating in code with Americans and westerners in the United States present even further challenges for law enforcement in tracking, identifying, and apprehending those who seek to engage in terrorist attacks.    In order to combat this trend, we must ensure that law enforcement has the necessary tools to do its job. Efforts to counter and deter unconventional information warfare must be joined with other government agencies' efforts to deal with the problem of terror on social media.    I thank our witnesses for their testimony today and look forward to examining issues related to the use of social media by terrorists, the extent that people are being radicalized, and what can be done to combat this growing problem.    I now recognize the ranking member of the Subcommittee on National Security, Mr. Lynch, for his opening statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to thank you for holding this hearing to examine the use of social media by the Islamic State and would like to thank today's witnesses for helping the committee with its work.    As noted by Jessica Stern and J.M. Berger, in their recent book, ISIS, the State of Terror, the Islamic State, also known as ISIL, has been prolific in its ability to exploit a variety of social media platforms. According to the authors, jihadists have been making slick propaganda for decades. But for a long time, these productions catered to an exclusive audience of potential recruits, never making the evening news or creeping into the collective consciousness of the West. However, in stark contrast, ISIL and its online supporters, continue to use Twitter, Facebook, WhatsAp, and other social networking services to broadcast their terrorist messages to a global audience in real time and significantly extend their recruitment, mobilization, and financing efforts beyond the battlefields in Iraq, Syria, and Afghanistan.    Last week, the Combatting Terrorism Center at West Point, again a J.M. Berger report, issued the existence or noticed the existence of over 40,000 accounts actively supporting the Islamic State on Twitter, with an estimated 2,000 accounts tweeting in English. A majority of these users form the core of the ISIL's aggressive online recruitment strategy. This strategy is designed to introduce recruitment targets to the Islamic State ideology, to groom and lavish attention on potential recruits through subsequent communication in private online channels, and directly call them to jihad. Ranging from lone-wolf style attacks at home, to migration to the Islamic State. The Islamic State even has a name for its most enthusiastic online users, mujtahidun, or the industrious ones. Jessica Stern and J.M. Berger note that these online supporters are far more active than their counterparts in Jabhat al-Nusra in Syria or Al Shabaab in Somalia in using social media tactics to expand their reach.    The impact of ISIL's extensive social media presence has already been witnessed in the unprecedented flood of foreign fighters to Iraq and Syria. A few months ago, I had the opportunity to travel with several House and Senate Members in a congressional delegation to the Syrian-Turkish border, an area north of Aleppo. We were briefed on the lack of meaningful progress in our train and equip program of so-called moderate rebels. We also met with representatives of about a half dozen rebel groups. And the only common characteristic between these groups was, one, they all saw Bashar al-Assad and his regime as the primary enemy. And, second, the all use WhatsAp as their platform for communication.    As reported in September of 2015 by the Bipartisan Congressional Task Force on Combatting Terrorism and Foreign Travel, nearly 30,000 foreign fighters have traveled to Iraq and Syria in 2011 to join the Islamic State, including an estimated 250 individuals from the United States who have sought to fight on the side of the extremists in ISIL conflict zones. There is also more direct evidence of the effect of Islamic State's online strategy here at home. According to the West Point report, at least 60 individuals have been arrested in the United States in 2015 for criminal acts in support of the Islamic State. Social media has played a role in the recruitment or radicalization in almost every single case.    As ranking member for the Financial Services Committee's Task Force to Investigate Terrorism Financing, I am well aware that ISIL and other terrorist groups are also using social media platforms and applications to coordinate funding for terrorist activity. Last year, David Cohen, who was then the undersecretary for Terrorism and Financial Intelligence at Treasury, remarked that constraining the flow of funds to terrorist groups is, ``particularly challenging in an area when social media allows anyone with an Internet connection to set himself up as an international terrorist financier.'' In particular, we have seen that private funding networks are relying on social media to solicit so-called charitable donations and inconspicuously connect donors with recipients on the battlefield. In response to the exploitation of social media by ISIL and other terrorist groups, Twitter and other service providers have slowly, and I must say grudgingly in some cases, begun to take some action to suspend terrorism-linked users accounts. This is often called a whack-a-mole approach to countering terrorism messaging, as suspended users can simply create new accounts. Jessica Stern and other analysts have noted that to a certain extent this strategy can prove effective in disrupting for a while and eventually downgrading terrorist social networks.    In addition, in 2011, the U.S. has established the Center for Strategic Counterterrorism Communications at the State Department, which for the past couple years has focused on countering ISIL's propaganda. However, as noted by one of today's witnesses, Ambassador Fernandez, the Center's budget over 3 years totaled the cost of a single Reaper drone, $15 million, and has remained the same since 2012. The team of operators and editors working in Arabic and English has not exceeded 15 people at any one time. The Center has also been operating amidst congressional budget constraints and hiring freezes that result at Federal agencies when Congress continues to enact short-term funding resolutions instead of traditional appropriations bills. We may have some progress in that regard as pending.    Mr. Chairman, it's clear that we must do more to counter the social media threat posed by the Islamic State and other terrorist groups. I look forward to discussing what additional steps we can take to strengthen our counterterrorism strategy in this regard, as well as support corresponding international, private sector, law enforcement, and community efforts.    Thank you, Mr. Chairman. And I yield back the balance of our time.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Wallace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wallace. Thank you, Mr. Chairman. Chairman DeSantis, Ranking Member Lynch, and members of the subcommittee, thank you for the opportunity to appear before you. It's obviously my great pleasure and honor to appear with my distinguished colleagues on this panel.    The hijacking and weaponization of social media platforms by extremist groups to radicalize, recruit and plan violent attacks against innocent people around the world is a cancer that continues to grow largely unabated. Today, there are at least 43,000 active pro-ISIS Twitter accounts endlessly amplifying and repeating ISIS's messages of hate and terror. The more than 30,000 people who have joined ISIS from around the world is a testament to the power of social media.    On September 11 of this year, CEP, the Counter Extremism Project, released profiles of 66 Americans who have joined or allegedly attempted to join the Islamic State of Iraq and Syria, as well as other Americans accused of planning attacks on U.S. soil, providing financial assistance to extremist entities, or propagandizing on their behalf. These individuals have very different backgrounds and experiences. But the one characteristic that they seem to share is active participation on social media. In addition, we will soon release profiles on 54 of the most prolific social media propagandists. Through #CEPDigitalDistruption, we have identified and reported hundreds of extremists to Twitter. And in June, we expanded our campaign to include monitoring of Twitter accounts in French, Italian, German, and Turkish.    We respect and honor our American constitutional traditions of free speech. Our standard for reporting an account is incitement of violence or direct threats. To be clear, we are concerned about various social media platforms. Our focus is on Twitter because it's effectively the gateway drug where individuals, usually young people, are first exposed to propaganda and radical content. It's, of course, an enormously successful platform, Twitter, ubiquitous. In many ways, that success has spurred its misuse by online jihadis. We wrote three letters to Twitter. But the response we have gotten is dismissive to the point of dereliction. Twitter's attitude can be best summarized in a quote provided to Mother Jones magazine by a Twitter official. They said ``one man's terrorist is another man's freedom fighter.'' I want to repeat that. ``One man's terrorist is another man's freedom fighter.'' Of course, this statement is insipid and unserious, particularly in the context of Al Qaeda, ISIS, and many other extremist groups.    Sally Jones epitomizes Twitter's failure to act effectively. Jones, known on Twitter as Um Hassan Al-Bretani, is a British ISIS operative. In September, Jones issued a kill list of 100 U.S. servicemen. She was named an SDN global terrorist and placed on the United Nations' Security Council's sanctions list. And, yet, in October, Jones urged violence on Twitter against Navy Seal Veteran Robert O'Neil and Dillard Johnson, a former Army sergeant. If Twitter can beef up its policies as it relates to bullying and harassment of women, why does it show such dismissiveness when it comes to those promoting and glorifying terror.    We stand ready to work with Congress, the administration, and any company, including Twitter, in finding the right mix of remedies that effectively attacks this growing problem, while protecting our values and liberties. We believe there are clear and immediate changes that all social media companies could make. First, one of the problems we have encountered is that many social media companies place accounts that have been reported into a rolling queue. We believe that by giving CEP as well as others like the State Department trusted reporting status and opening a direct line of communication, we can more easily and swiftly identify and remove the most notorious extremists online.    Second, our campaign relies in part on our stakeholder audience also reporting accounts. But the reporting process on Twitter and other social media sites is long and cumbersome. Twitter recently started its streamlined reporting process for women to report harassment or stalking which is great. But reporting of violent extremists still falls into a catchall category.    Third, while every organization is different, we believe it's critical that America's most important tech companies show a united front when it comes to fighting violent extremism. This would include a clear public policy statement that extremist activities will not be tolerated.    Fourth, shine the bright spotlight of transparency in the most extremist, most egregious extremist accounts. This past year, one of the most influential social media jihadi, Shami Witness, was exposed and immediately shut down his accounts and stopped operating. We can collectively agree that the most egregious of cyber jihadis do not deserve anonymity or the right of free hate and incitement of terror speech through the use of Twitter or any other social media platform.    Fifth, companies should more proactively monitor content. It's one thing to take down, but they should more proactively monitor. While no social media company has been able to resolve the problem completely, companies like Google and Facebook are at least willing to have a conversation and take steps to address the issue.    I am convinced that there are strategies that we can bring to bear on those who attempt to hijack and weaponize social media platforms. The majority of social media companies are U.S. companies. But online misuse has global consequences. It's time that social media companies like Twitter take responsibility for the global implications of their platform and their lack of action.    I would respectfully ask that my full remarks be included in the record. Thank you, Mr. Chairman. And thank you, Mr. Ranking Member Lynch.</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t xml:space="preserve">    Mr. DeSantis. Mr. Purdy, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Purdy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Purdy. Chairman DeSantis, Ranking Member Lynch, distinguished members of the subcommittee, thank you for inviting me today to testify on this important issue.    As I was driving down here this morning, I thought back to almost 14 years ago when I sat with an American young man from California, who actually was radicalized in California, traveled overseas to Pakistan, made his way into Afghanistan where he trained in a terrorist training camp. Today, individuals here in the United States don't have to undertake that journey that this individual from California did 14 years ago. Today, anybody with a smart phone or a computer can become radicalized online.    Radicalization today takes so many different forms. There is no single pathway for someone becoming radicalized. And, yet, we see groups like Al Qaeda, al Nusra, ISIS all using social media and Internet today to act as enablers, providing a medium for these individuals seeking that path of self-radicalization. We see many works like Milestones, The Call to Global Jihad by Abu Musab al Suri, Constants on the Path of Jihad by Anwar al-Awlaki. These constant themes keep coming up in ISIS, al Nusra, and other terrorist social media, seeking to help radicalize these individuals before they go overseas and travel. These works constantly come up. And individuals here in the United States that have gone to social media sites, like some that you have mentioned in your opening statements, have helped to manipulate and motivate these individuals to undertake activities that run the spectrum from raising money, providing material support, undertaking to fight jihad here in the United States, traveling overseas to enter countries, Turkey, Greece, and others on there way to fight in Iraq and Syria, to plotting operations here in the United States.    Many of these individuals that we see have started that process of radicalization by going online, using the Internet. Individuals like Nidal Hasan, the Fort Hood shooter, exchanged dozens of emails with his spiritual mentor, Anwar al-Awlaki. American citizens, Awlaki and Adam Gadahn, both radicalized and recruited other individuals, sending people to various sites to help develop their radicalization. Virtual mentors today have communicated with potential recruits and others to deliver their messages to these individuals in blogs, Web sites, chatrooms, and forums.    The use of encrypted communication today, is a barrier in which law enforcement has to deal with to try to get to the bottom of this very challenging problem. Adam Gadahn, in a propaganda video years ago, stated, I advise every brother who wants to work for this religion not to undertake any action before taking advantage of the wide range of resources available today on the Internet. Whether a group like Al Qaeda, Al Nusra, or ISIS, they all constantly point those individuals, seeking to wage jihad, here in the United States or abroad to the Internet. The United States faces various challenges from homegrown violent extremists who have been radicalized to launch attacks here in the United States.    We have seen a growing list of Americans who have traveled to fight jihad and support terrorists groups like ISIS overseas. Former director of the FBI, speaking about Americans who had gone overseas to fight, stated, it raises the question of whether these young men will one day come home. And, if so, what type of things will they undertake here.    Today, any American uses social media to gain any sort of information and an understanding of all kinds of things that are placed on the Internet. But these individuals are using this particular platform so that they can gain access to jihadi fighters in theater and also to help recruit and radicalize potential American fighters. The number of American fighters that have taken selfies, created digital propaganda of themselves, fuse this particular effort that we see.    Since the Syrian conflict escalated, we have seen over 300 Americans attempt to or travel to or fight in Syria. Individuals like Nicole Mansfield, convert to Islam from Flynt, Michigan. Individuals from Virginia, Massachusetts, Florida have all gone and fought overseas. An American from Florida, on May 25, 2014, actually went and became their first suicide bomber in Syria. He grew up in a gated community. This particular social media platform is the fire that fuels the radicalization and the challenge that we face. I would say one additional thing that we need to understand.</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t xml:space="preserve">    Mr. DeSantis. And, now, Mr. Gartenstein-Ross, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gartenstein-Ross</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gartenstein-Ross. Thank you, Chairman DeSantis, Ranking Member Lynch, distinguished members. I appreciate the opportunity to testify before you today.    What I would like to focus on is the broader view of how social media is having an impact on the strategic information environment. Social media is revolutionary in so many ways. And I thought both the opening statements and also my colleagues have done a very good job of articulating those ways. But, ultimately, it's something which is tried and true in an armed conflict, that is, it's a tool of strategic communication.    I think in addition to understanding the direct impact of what ISIS is doing, we also need to understand how an organization like this, which has achieved a technical mastery of this strategic communication tool and also is branded by its over the top violence, we need to understand the impact that has on the overall information environment.    Chairman DeSantis, you spoke of the many extremist groups today that are operating in Syria and elsewhere and the many extremist groups that use this social media platform. ISIS is much more adept at it than others in terms of directly mobilizing people to their cause. But other groups also have their communication strategies.    ISIS, of course, was born out of the Al Qaeda organization and now challenges it for supremacy over the global jihadist movement. In so many ways, ISIS's rise has harmed Al Qaeda, including stealing away their fighters, stealing away their affiliates. But in other ways, it's actually benefited the Al Qaeda organization. In fact, today, Al Qaeda members are speaking openly of the ways in which ISIS's rise has helped them in terms of their communication.    In the latest issue of al-Risalah, which is an Al Qaeda-affiliated magazine published out of Syria, Usama Hamza Australi, who is a longtime confederate of the Al Qaeda organization, referred to ISIS's rise as a blessing in disguise. The reason he gave is that previously when people talked about extremism, they talked about people, Australi said, who wage jihad as being the extremists. Australi said now they know that it's not people who wage jihad that are the extremists, it's not those who avoid it, who are moderates, rather, he said, ISIS is the extremists and we, Al Qaeda, are the moderates.    Bin Laden recognized before his death that grave damage had been done to the Al Qaeda brand through the excesses of ISIS's predecessor, Al Qaeda in Iraq. He wanted to re-brand Al Qaeda. And he wanted to do this so badly, so deeply that he even thought about changing the organization's name. Well, two things have given Al Qaeda tremendous opportunities. One of which is the awful Sunni-Shia conflict which is racking the region, which has shifted strategic priorities and made some Sunni gulf states see Al Qaeda as a possible counterbalance against Iran.    The second thing is the rise of ISIS, which Al Qaeda is able to use as a foil. And they've done this successfully, much more successfully than we're now acknowledging and in ways that going to cause lasting problems for us. Right now, Al Qaeda is receiving state support. This is out in the open. The Jaysh al-Fatah Coalition, of which both Al Qaeda Syrian affiliates Jabhat al-Nusra and also the other jihadist group, Ahrar al-Sham are leading members. Receives open support from Qatar, Turkey, and Saudi Arabia. In Yemen, Al Qaeda is at the forefront of opposing the advance of Arabian-backed Houthis. Right now, Al Qaeda controls territory on the ground in Yemen, in Al Mukalla, which is the 5th largest city, and also in Aden. In fact, we're seeing the collapse of the anti-Al Qaeda sanctions regime with Mohammed Islambolly, a high-level member in the Khorasan Group in Syria, being delisted by the United Nations just 2 days ago.    Our own actions have an impact and prevent us from countering some of these negative developments. Let's not lose sight of the fact that our actions are communicated acts. When you look at our policies in Syria, which the Oversight Committee also is concerned about, one thing that has come up in the past few weeks after Russia started bombing is complaints from officials about how Russia was bombing U.S.-backed rebels.    There's an amazing article by Ken Dilanian in the Associated Press, published on October 10, where he talks about how U.S. officials said that our rebels were gaining ground prior to the Russian bombing. When he names where those rebels were gaining ground, in Idlib, in Hama, it's obvious that the people at the forefront were Jaysh al-Fatah, the coalition that's associated with Al Qaeda. I wish this were conspiracy theory. I wish that this was hyperbole.    But U.S. officials are talking about the fact that our rebels are helping Al Qaeda make advances on the ground. This is of grave concern because it's ultimately a communicated act. Our actions are communicated acts. And if we take actions that are contrary to our values and arguably contrary to U.S. law, that can stop us from preventing this tremendous shift where Al Qaeda is operating much more openly. Thank you.</t>
   </si>
   <si>
@@ -100,6 +124,9 @@
     <t xml:space="preserve">    Mr. DeSantis. Ambassador Fernandez, welcome. You're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fernandez. Thank you, Mr. Chairman. And thank you, Ranking Member Lynch, other members, and ladies and gentlemen. It's a pleasure to be here with you today.    The ISIS appeal is truly revolutionary. This is a complete package, which includes a strong ideological component, deeply rooted in a specific Salafi jihadist reading of the period of formative Islam, a political project of building the caliphate state which is seen as a going concern and a 21st century appeal to substantive and consequential participation, aimed at youth searching for purpose and identity, in a seemingly aimless, empty, and hedonistic world.    Social media itself is not the heart of the issue. Social media is the accelerant. It's the thing that turbocharges a poisonous and powerful message. This appeal that ISIS has, has come closer than that of many other Islamic terrorist groups in mainstreaming its discussion. Mainstreaming its world view, and has, as other witnesses have said, ignited a terrorist media arms race with other groups seeking to match and even try to supercede what the Islamic State is doing.    The propaganda of ISIS is connected to the reality on the ground. The carnage in Syria and the victories in Iraq are eventually what led to the declaration of the caliphate. And we saw online support spike through the roof in the aftermath of these events.    What are some of the practical steps that can be taken? Number one, we need to realize that military victory is the best way to weaken ISIS propaganda appeal. There is a connection between the real world and the propaganda. The propaganda gets weakened when the reality on the ground changes.    Number two, as has been said here, there needs to be much better policing of social media. Not all social media companies are the same. Facebook has made real progress. But YouTube, Twitter, and others lag behind. It's overdue for Congress and for others to have a serious exchange of views, a serious conversation with social media companies on the terrorist presence on the Internet and how these companies violate terms of services, let alone the question of legality. Better policing of the Internet will decrease the number of ISIS propagandists and help those who are fighting it be increased. There is value in making it inconvenient for them.    Number two, people are radicalized in clusters as part of a personal relationship either directly or in person online. We know that recent converts, 40 percent of ISIS, people who want to join ISIS have been recent converts in the United States. And second generation immigrants are particularly at risk. We need to empower domestic and international civil society by both consistent funding and training to be on all the time, to be intervening and engaging with these lost and questing souls, enlist people who have a talent for engagement.    Third, Syria is important. ISIS seeks to present Syria as a mobilizing factor to mobilize people, to radicalize them, to get them to do something. They present a false image of the reality in Syria. And there is power in helping the Syrian people, victims of ISIS, survivors of ISIS violence, being able to communicate the reality on the ground that is often not known by a teenager in Mississippi or in California.    Finally, the last point I would mention is the issue of volume. Volume has value. We all know in our personal lives how you may see an obscure idea or strange idea be amplified by social media because a lot of people are pushing it. It's incredible to me that to this day, the United States, friendly countries in the West and in the Middle East are out numbered by the Islamic State. And you need volume to make the message more powerful. You need a network to fight a network.    There have been some small steps taken by the State Department, by friendly governments to begin to do this but we need to do a lot more. You need to encourage people and inspire them like ISIS does to do propaganda, or you need to rent them. But you need to find a way to form loose, open source communities of interest or swarms that can swarm back and push back against the ISIS message. It's not an impossible thing to do. It can be done. We just need to have a little more will and a little more support in doing so. Thank you very much.</t>
   </si>
   <si>
@@ -145,6 +172,12 @@
     <t>400116</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman. And, you know, many people today, both liberal and conservative, say that the original decision to go into Iraq in 2002 was the biggest foreign policy mistake in the history of this country. William Buckley, for instance, said similar words to that shortly before he passed away. George Will wrote a column saying that the neoconservatives, who were the strongest advocates of our war, were really the most--very misnamed people, he said actually they were the most radical people in this city. And the more we read about this, the worse it seems to get.    Just yesterday, for instance, I read that the New York Times had written that most of the leadership of ISIS and most of its soldiers were former members of the Iraqi Army and that we made a mistake when we followed our policy of de-Baathification and disbanding the Iraqi Army shortly after we started that second war in Iraq. Do you gentlemen think the New York Times was correct? Are most of the leadership of ISIS former Iraqi military people?    Anybody? Yes, sir.</t>
   </si>
   <si>
@@ -160,6 +193,12 @@
     <t>412616</t>
   </si>
   <si>
+    <t>Lieu</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chair. I agree with Representative Duncan that we're wasting taxpayer funds by bombing in Syria. I have seen no good results from that. In fact, you've seen more Syrians flee. And that sort of goes to my question to you, Ambassador Fernandez, which, I agree with you, that you say that social media is not the cause of radicalization, it's an accelerant. And really the problem is the message. Don't you think the U.S. bombing in Syria actually gives a lot of propaganda to ISIL and ISIS?</t>
   </si>
   <si>
@@ -211,6 +250,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman, and thank you, panel, for being here today. Very interesting and informative, and I appreciate the expertise that you bring to the table.    Mr. Purdy, let me begin with you. Can you describe for me a little bit about the program, the Mirror Image? I understand that it's something that allows law enforcement to walk in the shoes of terrorists or something to that effect. Could you describe that a little further, please?</t>
   </si>
   <si>
@@ -254,6 +299,12 @@
   </si>
   <si>
     <t>412654</t>
+  </si>
+  <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Chairman. Ambassador Wallace, good to see you again. It's been a while since we served together in New York City. One of my first questions to you, sir, you mentioned the individual that had opened and closed a hundred accounts on Twitter by a different name. What are you proposing that Twitter do about it?</t>
@@ -692,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +751,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,2237 +773,2635 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
       <c r="H47" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97977.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97977.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412526</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>DeSantis</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lynch</t>
   </si>
   <si>
@@ -170,6 +179,9 @@
   </si>
   <si>
     <t>400116</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Duncan</t>
@@ -743,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2632 +788,2844 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
